--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1837.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1837.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.268984846962081</v>
+        <v>0.547304093837738</v>
       </c>
       <c r="B1">
-        <v>1.382774268883471</v>
+        <v>3.407247304916382</v>
       </c>
       <c r="C1">
-        <v>1.426772692570076</v>
+        <v>4.549694061279297</v>
       </c>
       <c r="D1">
-        <v>1.705333987638981</v>
+        <v>1.864233613014221</v>
       </c>
       <c r="E1">
-        <v>2.384282252832125</v>
+        <v>0.7921881675720215</v>
       </c>
     </row>
   </sheetData>
